--- a/KOMPEGE/block 18/18_275.xlsx
+++ b/KOMPEGE/block 18/18_275.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelo\OneDrive\Рабочий стол\18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E5539-031F-4BC7-9B64-F138E6A0C7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48639249-3912-41F9-B33D-EC421BB3DB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2220" windowWidth="33825" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -52,15 +52,33 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -68,13 +86,231 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -137,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -189,7 +425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -391,720 +627,720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>23</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>69</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>20</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>60</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>18</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>61</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>18</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="13">
         <v>0</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>24</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>80</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>34</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>46</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>47</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>77</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="4">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>78</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>97</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>45</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>72</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>72</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>68</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>78</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>27</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <v>88</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <v>40</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="6">
         <v>70</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <v>72</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="6">
         <v>21</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="6">
         <v>82</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>55</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>19</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>88</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>77</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>29</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>35</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>42</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <v>87</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="6">
         <v>83</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="11">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="6">
         <v>18</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="6">
         <v>56</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="7">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>84</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>83</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>68</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>71</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>58</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>73</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>16</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>88</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>40</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="6">
         <v>28</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="6">
         <v>72</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="6">
         <v>35</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="6">
         <v>47</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>62</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>84</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>23</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>37</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>81</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>36</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>46</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>86</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>94</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>16</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <v>38</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="6">
         <v>37</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="6">
         <v>98</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="6">
         <v>99</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>77</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>92</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>62</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>64</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>47</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>51</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>27</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>71</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <v>26</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6">
         <v>20</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="6">
         <v>40</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="6">
         <v>24</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="6">
         <v>60</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>19</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>84</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>63</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>93</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>87</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <v>91</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6">
         <v>11</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="6">
         <v>47</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="6">
         <v>32</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="6">
         <v>30</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="6">
         <v>92</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="7">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>70</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>41</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>48</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>58</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>44</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>92</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>94</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <v>22</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <v>72</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6">
         <v>95</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="6">
         <v>95</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="6">
         <v>72</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="6">
         <v>35</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>26</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>51</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>16</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>24</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>43</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>15</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <v>89</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="11">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <v>12</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="6">
         <v>29</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="6">
         <v>57</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="6">
         <v>44</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="6">
         <v>98</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="7">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>69</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>94</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>37</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>24</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>36</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="11">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="11">
         <v>0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="11">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <v>10</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>90</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="6">
         <v>74</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="6">
         <v>24</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="6">
         <v>13</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="6">
         <v>39</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="7">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="12">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>90</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>87</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>93</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>51</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>14</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>49</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <v>64</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <v>86</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="11">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="6">
         <v>30</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="6">
         <v>12</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="6">
         <v>57</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="7">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>61</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>90</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>81</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>61</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>37</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>84</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>63</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <v>35</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <v>16</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <v>94</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="11">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="6">
         <v>77</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="6">
         <v>53</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="6">
         <v>83</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>22</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>91</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>17</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>52</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>15</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="6">
         <v>31</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <v>65</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <v>61</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="6">
         <v>85</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="6">
         <v>53</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
         <v>63</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="6">
         <v>88</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="7">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>61</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>73</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>94</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>55</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>84</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>43</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <v>91</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <v>47</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <v>74</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="6">
         <v>21</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="6">
         <v>55</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="6">
         <v>10</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="6">
         <v>27</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="7">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>77</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>79</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="9">
         <v>91</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>53</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>27</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="9">
         <v>94</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="9">
         <v>82</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="9">
         <v>19</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="9">
         <v>38</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="9">
         <v>57</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="9">
         <v>42</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="9">
         <v>31</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="9">
         <v>19</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="9">
         <v>45</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="10">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1121,243 +1357,855 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>23</v>
+      </c>
+      <c r="B18" s="21">
+        <f>B1+A18</f>
+        <v>92</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" ref="C18:G18" si="0">C1+B18</f>
+        <v>112</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <f t="shared" ref="A19:A27" si="1">A2+A18</f>
+        <v>101</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:O19" si="2">MIN(A19,B18)+B2</f>
+        <v>189</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>347</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="2"/>
+        <v>502</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>572</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>644</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
+        <v>665</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>747</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="2"/>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" ref="B20:B32" si="3">MIN(A20,B19)+B3</f>
+        <v>175</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="20">
+        <f t="shared" ref="D20:D21" si="4">D3+D19</f>
+        <v>317</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" ref="E20:J22" si="5">MIN(D20,E19)+E3</f>
+        <v>339</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="5"/>
+        <v>416</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="5"/>
+        <v>503</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="5"/>
+        <v>585</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20">
+        <f t="shared" ref="M20" si="6">M3+M19</f>
+        <v>683</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" ref="N20:N32" si="7">MIN(M20,N19)+N3</f>
+        <v>739</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" ref="O20:O32" si="8">MIN(N20,O19)+O3</f>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="20">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="5"/>
+        <v>406</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="5"/>
+        <v>455</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="5"/>
+        <v>432</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="5"/>
+        <v>560</v>
+      </c>
+      <c r="K21" s="21">
+        <f t="shared" ref="K21:L21" si="9">K4+J21</f>
+        <v>588</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="9"/>
+        <v>660</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" ref="M21:M32" si="10">MIN(L21,M20)+M4</f>
+        <v>695</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="7"/>
+        <v>742</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="3"/>
+        <v>342</v>
+      </c>
+      <c r="C22" s="21">
+        <f>C5+B22</f>
+        <v>365</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:D29" si="11">MIN(C22,D21)+D5</f>
+        <v>402</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="5"/>
+        <v>483</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="5"/>
+        <v>488</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="5"/>
+        <v>518</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="5"/>
+        <v>612</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="5"/>
+        <v>576</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" ref="K22:L27" si="12">MIN(J22,K21)+K5</f>
+        <v>614</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="12"/>
+        <v>651</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="10"/>
+        <v>749</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="7"/>
+        <v>841</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="8"/>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="3"/>
+        <v>434</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ref="C23:C29" si="13">MIN(B23,C22)+C6</f>
+        <v>427</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="11"/>
+        <v>466</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" ref="E23:E32" si="14">MIN(D23,E22)+E6</f>
+        <v>513</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="20">
+        <f t="shared" ref="G23:G24" si="15">G6+G22</f>
+        <v>539</v>
+      </c>
+      <c r="H23" s="6">
+        <f>MIN(G23,H22)+H6</f>
+        <v>545</v>
+      </c>
+      <c r="I23" s="6">
+        <f>MIN(H23,I22)+I6</f>
+        <v>616</v>
+      </c>
+      <c r="J23" s="6">
+        <f>MIN(I23,J22)+J6</f>
+        <v>602</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="12"/>
+        <v>622</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="12"/>
+        <v>662</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="10"/>
+        <v>686</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="7"/>
+        <v>746</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="8"/>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="13"/>
+        <v>498</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="11"/>
+        <v>529</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="14"/>
+        <v>606</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="20">
+        <f t="shared" si="15"/>
+        <v>626</v>
+      </c>
+      <c r="H24" s="6">
+        <f>MIN(G24,H23)+H7</f>
+        <v>636</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="20">
+        <f t="shared" ref="J24" si="16">J7+J23</f>
+        <v>613</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="12"/>
+        <v>660</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="12"/>
+        <v>692</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="10"/>
+        <v>716</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="7"/>
+        <v>808</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="8"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="13"/>
+        <v>484</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="11"/>
+        <v>532</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="14"/>
+        <v>590</v>
+      </c>
+      <c r="F25" s="21">
+        <f>F8+E25</f>
+        <v>634</v>
+      </c>
+      <c r="G25" s="6">
+        <f>MIN(F25,G24)+G8</f>
+        <v>718</v>
+      </c>
+      <c r="H25" s="6">
+        <f>MIN(G25,H24)+H8</f>
+        <v>730</v>
+      </c>
+      <c r="I25" s="6">
+        <f>MIN(H25,I24)+I8</f>
+        <v>752</v>
+      </c>
+      <c r="J25" s="6">
+        <f>MIN(I25,J24)+J8</f>
+        <v>685</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="12"/>
+        <v>755</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="12"/>
+        <v>787</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="10"/>
+        <v>788</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="7"/>
+        <v>823</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="8"/>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="3"/>
+        <v>494</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="13"/>
+        <v>500</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="11"/>
+        <v>510</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="14"/>
+        <v>534</v>
+      </c>
+      <c r="F26" s="6">
+        <f>MIN(E26,F25)+F9</f>
+        <v>577</v>
+      </c>
+      <c r="G26" s="6">
+        <f>MIN(F26,G25)+G9</f>
+        <v>592</v>
+      </c>
+      <c r="H26" s="6">
+        <f>MIN(G26,H25)+H9</f>
+        <v>681</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="20">
+        <f t="shared" ref="J26:J27" si="17">J9+J25</f>
+        <v>697</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="12"/>
+        <v>726</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="12"/>
+        <v>783</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="10"/>
+        <v>827</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="7"/>
+        <v>921</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="8"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="3"/>
+        <v>588</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="13"/>
+        <v>537</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="11"/>
+        <v>534</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="14"/>
+        <v>570</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="20">
+        <f t="shared" si="17"/>
+        <v>787</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="12"/>
+        <v>807</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="10"/>
+        <v>820</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="7"/>
+        <v>859</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="8"/>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6">
+        <f t="shared" si="3"/>
+        <v>678</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="13"/>
+        <v>624</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="11"/>
+        <v>627</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="14"/>
+        <v>580</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" ref="F28:H28" si="18">F11+E28</f>
+        <v>631</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="18"/>
+        <v>645</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="18"/>
+        <v>694</v>
+      </c>
+      <c r="I28" s="21">
+        <f>I11+H28</f>
+        <v>758</v>
+      </c>
+      <c r="J28" s="6">
+        <f>MIN(I28,J27)+J11</f>
+        <v>844</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="20">
+        <f t="shared" ref="L28:L29" si="19">L11+L27</f>
+        <v>837</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="10"/>
+        <v>832</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="7"/>
+        <v>889</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="8"/>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="13"/>
+        <v>705</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="11"/>
+        <v>688</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="14"/>
+        <v>617</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" ref="F29:I32" si="20">MIN(E29,F28)+F12</f>
+        <v>701</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="20"/>
+        <v>708</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="20"/>
+        <v>729</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="20"/>
+        <v>745</v>
+      </c>
+      <c r="J29" s="6">
+        <f>MIN(I29,J28)+J12</f>
+        <v>839</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="20">
+        <f t="shared" si="19"/>
+        <v>914</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="10"/>
+        <v>885</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="7"/>
+        <v>968</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="8"/>
+        <v>982</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <f t="shared" si="3"/>
+        <v>784</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="20">
+        <f t="shared" ref="D30:D31" si="21">D13+D29</f>
+        <v>779</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="14"/>
+        <v>634</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="20"/>
+        <v>686</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="20"/>
+        <v>701</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="20"/>
+        <v>732</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="20"/>
+        <v>797</v>
+      </c>
+      <c r="J30" s="6">
+        <f>MIN(I30,J29)+J13</f>
+        <v>858</v>
+      </c>
+      <c r="K30" s="21">
+        <f>K13+J30</f>
+        <v>943</v>
+      </c>
+      <c r="L30" s="6">
+        <f>MIN(K30,L29)+L13</f>
+        <v>967</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="10"/>
+        <v>948</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="7"/>
+        <v>1036</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="8"/>
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6">
+        <f t="shared" si="3"/>
+        <v>857</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="20">
+        <f t="shared" si="21"/>
+        <v>873</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="14"/>
+        <v>689</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="20"/>
+        <v>770</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="20"/>
+        <v>744</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="20"/>
+        <v>823</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="20"/>
+        <v>844</v>
+      </c>
+      <c r="J31" s="6">
+        <f>MIN(I31,J30)+J14</f>
+        <v>918</v>
+      </c>
+      <c r="K31" s="6">
+        <f>MIN(J31,K30)+K14</f>
+        <v>939</v>
+      </c>
+      <c r="L31" s="6">
+        <f>MIN(K31,L30)+L14</f>
+        <v>994</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="10"/>
+        <v>958</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="7"/>
+        <v>985</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="8"/>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9">
+        <f t="shared" si="3"/>
+        <v>936</v>
+      </c>
+      <c r="C32" s="21">
+        <f>C15+B32</f>
+        <v>1027</v>
+      </c>
+      <c r="D32" s="9">
+        <f>MIN(C32,D31)+D15</f>
+        <v>926</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="14"/>
+        <v>716</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="20"/>
+        <v>810</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="20"/>
+        <v>826</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="20"/>
+        <v>842</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="20"/>
+        <v>880</v>
+      </c>
+      <c r="J32" s="9">
+        <f>MIN(I32,J31)+J15</f>
+        <v>937</v>
+      </c>
+      <c r="K32" s="9">
+        <f>MIN(J32,K31)+K15</f>
+        <v>979</v>
+      </c>
+      <c r="L32" s="9">
+        <f>MIN(K32,L31)+L15</f>
+        <v>1010</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="10"/>
+        <v>977</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="7"/>
+        <v>1022</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="8"/>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1053</v>
+      </c>
+      <c r="G38">
+        <v>2053</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
